--- a/[def].xlsx
+++ b/[def].xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\mins01\html\web_work\util\db_specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\mins01\html\web_work\util\util_db_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206F0BB7-6F63-4AF7-A607-F829F7037999}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6186E5-33E6-4A31-8FEB-19C556443CC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,30 @@
     <sheet name="TABLE 목록" sheetId="2" r:id="rId2"/>
     <sheet name="TABLE 구조" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TABLE 구조'!$A$4:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TABLE 목록'!$A$1:$D$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HOST</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,14 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코멘트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,9 +80,6 @@
     <t>필드명</t>
   </si>
   <si>
-    <t>데이터길이</t>
-  </si>
-  <si>
     <t>KEY</t>
   </si>
   <si>
@@ -101,23 +103,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 명세서</t>
+    <t>생성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블정의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_COMMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대외비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트명 기입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +182,44 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,30 +228,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -209,39 +257,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
         <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -251,47 +292,47 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,61 +614,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="58.25" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="2:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -639,31 +723,33 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.875" customWidth="1"/>
-    <col min="3" max="3" width="35.875" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{205EE33E-4FD9-456C-991B-F14818FD2901}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -672,106 +758,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D589C976-2B10-449A-9E52-82F6BCA3887F}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="48.625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="8" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:H4" xr:uid="{9A01F74B-5F19-431D-9D90-14DB72BE23B1}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/[def].xlsx
+++ b/[def].xlsx
@@ -1,77 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\mins01\html\web_work\util\util_db_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6186E5-33E6-4A31-8FEB-19C556443CC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8458FD4A-97B4-4159-B377-73A901CD832E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DB명세서" sheetId="1" r:id="rId1"/>
-    <sheet name="TABLE 목록" sheetId="2" r:id="rId2"/>
-    <sheet name="TABLE 구조" sheetId="3" r:id="rId3"/>
+    <sheet name="new10 정의서" sheetId="1" r:id="rId1"/>
+    <sheet name="테이블 목록" sheetId="2" r:id="rId2"/>
+    <sheet name="_기본_테이블정의서" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TABLE 구조'!$A$4:$H$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TABLE 목록'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">_기본_테이블정의서!$A$4:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'테이블 목록'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+  <si>
+    <t>대외비</t>
+  </si>
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>new10 데이터베이스 정의서</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>프로젝트명 기입</t>
+  </si>
   <si>
     <t>HOST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXXXX 명세서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
   </si>
   <si>
     <t>USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new10</t>
   </si>
   <si>
     <t>DATABASE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>created at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-02-23 08:58:42</t>
+  </si>
+  <si>
+    <t>생성자</t>
+  </si>
+  <si>
+    <t>확인자</t>
+  </si>
+  <si>
+    <t>확인일</t>
   </si>
   <si>
     <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+  </si>
+  <si>
+    <t>TABLE_COMMENT</t>
+  </si>
+  <si>
+    <t>CREATE_TIME</t>
+  </si>
+  <si>
+    <t>테이블정의서</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Create time</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
   <si>
     <t>순번</t>
@@ -80,6 +106,9 @@
     <t>필드명</t>
   </si>
   <si>
+    <t>데이터타입</t>
+  </si>
+  <si>
     <t>KEY</t>
   </si>
   <si>
@@ -93,62 +122,6 @@
   </si>
   <si>
     <t>필드설명</t>
-  </si>
-  <si>
-    <t>Database</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블정의서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_COMMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대외비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트명 기입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -160,54 +133,25 @@
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -216,10 +160,31 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,9 +192,12 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -243,16 +211,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -261,7 +229,7 @@
         <color rgb="FFFF0000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FFFF0000"/>
@@ -273,7 +241,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thick">
         <color rgb="FFFF0000"/>
@@ -291,55 +259,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -362,44 +332,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -429,12 +399,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -473,142 +443,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -616,27 +610,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="58.25" customWidth="1"/>
-    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="2:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
@@ -645,168 +639,178 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="13" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="12"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD27A469-12DA-4EFA-A543-FA50AEF09837}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{205EE33E-4FD9-456C-991B-F14818FD2901}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D589C976-2B10-449A-9E52-82F6BCA3887F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="8" max="8" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -816,34 +820,35 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H4" xr:uid="{9A01F74B-5F19-431D-9D90-14DB72BE23B1}"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A4:H4" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="G2:H2"/>
@@ -851,7 +856,7 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/[def].xlsx
+++ b/[def].xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\mins01\html\web_work\util\util_db_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8458FD4A-97B4-4159-B377-73A901CD832E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85EF985-7E09-4AFA-806E-5EB27A433A63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new10 정의서" sheetId="1" r:id="rId1"/>
     <sheet name="테이블 목록" sheetId="2" r:id="rId2"/>
-    <sheet name="_기본_테이블정의서" sheetId="3" r:id="rId3"/>
+    <sheet name="(기본)테이블정의서" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">_기본_테이블정의서!$A$4:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'(기본)테이블정의서'!$A$4:$H$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'테이블 목록'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>대외비</t>
   </si>
@@ -34,36 +45,15 @@
     <t>제목</t>
   </si>
   <si>
-    <t>new10 데이터베이스 정의서</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>프로젝트명 기입</t>
-  </si>
-  <si>
     <t>HOST</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
-  </si>
-  <si>
     <t>USER</t>
   </si>
   <si>
-    <t>new10</t>
-  </si>
-  <si>
     <t>DATABASE</t>
   </si>
   <si>
-    <t>created at</t>
-  </si>
-  <si>
-    <t>2021-02-23 08:58:42</t>
-  </si>
-  <si>
     <t>생성자</t>
   </si>
   <si>
@@ -122,6 +112,23 @@
   </si>
   <si>
     <t>필드설명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트명 기입 (수동기입)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXX 데이터베이스 정의서</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 자동생성일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -258,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -266,7 +273,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,9 +286,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -303,6 +306,9 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,10 +614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -624,27 +633,27 @@
   <sheetData>
     <row r="1" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
+      <c r="B5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -654,61 +663,53 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="11" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="13" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="11" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="13" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -723,10 +724,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -738,17 +742,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>18</v>
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +769,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -781,69 +785,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/[def].xlsx
+++ b/[def].xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\mins01\html\web_work\util\util_db_specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85EF985-7E09-4AFA-806E-5EB27A433A63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288F7530-B98E-4DC0-A025-B0E4466DC96B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="new10 정의서" sheetId="1" r:id="rId1"/>
+    <sheet name="표지" sheetId="1" r:id="rId1"/>
     <sheet name="테이블 목록" sheetId="2" r:id="rId2"/>
     <sheet name="(기본)테이블정의서" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'(기본)테이블정의서'!$A$4:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'(기본)테이블정의서'!$A$6:$I$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'테이블 목록'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>대외비</t>
   </si>
@@ -54,81 +54,107 @@
     <t>DATABASE</t>
   </si>
   <si>
-    <t>생성자</t>
-  </si>
-  <si>
     <t>확인자</t>
   </si>
   <si>
     <t>확인일</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>TABLE_NAME</t>
-  </si>
-  <si>
-    <t>TABLE_COMMENT</t>
-  </si>
-  <si>
-    <t>CREATE_TIME</t>
+    <t>순번</t>
+  </si>
+  <si>
+    <t>필드명</t>
+  </si>
+  <si>
+    <t>데이터타입</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>NULL값여부</t>
+  </si>
+  <si>
+    <t>디폴트값</t>
+  </si>
+  <si>
+    <t>필드설명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 자동생성일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>테이블정의서</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Create time</t>
-  </si>
-  <si>
-    <t>Comment</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트/사업명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인자</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 설명</t>
+  </si>
+  <si>
+    <t>테이블명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블설명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자를 입력하세요</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인자를 입력하세요</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTRA</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>순번</t>
-  </si>
-  <si>
-    <t>필드명</t>
-  </si>
-  <si>
-    <t>데이터타입</t>
-  </si>
-  <si>
-    <t>KEY</t>
-  </si>
-  <si>
-    <t>NULL값여부</t>
-  </si>
-  <si>
-    <t>자동여부</t>
-  </si>
-  <si>
-    <t>디폴트값</t>
-  </si>
-  <si>
-    <t>필드설명</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트명 기입 (수동기입)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXXXX 데이터베이스 정의서</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서 자동생성일</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트를 입력하세요</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인일을 입력하세요</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -138,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -170,14 +196,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
@@ -190,8 +208,48 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,8 +265,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -261,11 +325,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -273,48 +389,419 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -620,7 +1107,7 @@
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -633,90 +1120,100 @@
   <sheetData>
     <row r="1" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C4" s="23"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2"/>
     </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="25"/>
+    </row>
     <row r="11" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -727,38 +1224,39 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -766,101 +1264,131 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="17" t="str">
+        <f>표지!C5</f>
+        <v>프로젝트를 입력하세요</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="str">
+        <f>표지!C13</f>
+        <v>작성자를 입력하세요</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="str">
+        <f>표지!C14</f>
+        <v>확인자를 입력하세요</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="8" t="s">
+      <c r="I6" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A4:H4" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="9">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
